--- a/Results.xlsx
+++ b/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -23,9 +23,18 @@
     <t>Количество баллов</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ergwf</t>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>dev</t>
   </si>
   <si>
@@ -33,9 +42,6 @@
   </si>
   <si>
     <t>ffdvf</t>
-  </si>
-  <si>
-    <t>der</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,7 +111,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>126.0</v>
+        <v>286.0</v>
       </c>
     </row>
     <row r="3">
@@ -116,7 +122,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>77.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="4">
@@ -127,7 +133,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>72.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="5">
@@ -135,10 +141,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>42.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
@@ -146,10 +152,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>40.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="7">
@@ -157,10 +163,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="8">
@@ -168,10 +174,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="9">
@@ -179,10 +185,32 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>0.0</v>
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>37.0</v>
       </c>
     </row>
   </sheetData>
